--- a/batch process paper section study.xlsx
+++ b/batch process paper section study.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marct\AnacondaProjects\volume-em-pubs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA9B162-DB5D-4B19-A848-0421BA92D9E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="3600" windowWidth="28800" windowHeight="12960" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="510" windowWidth="24255" windowHeight="15630" tabRatio="269" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <r>
       <t xml:space="preserve">Bock, D. D. </t>
@@ -208,9 +214,6 @@
     <t>unreported, probably ribbon</t>
   </si>
   <si>
-    <t>Sommer, R. J., Bumbarger, D. J., Riebesell, M. &amp; Ro, C. System-wide Rewiring Underlies Behavioral Differences in Predatory and Bacterial-Feeding Nematodes. 109–119 (2013). doi:10.1016/j.cell.2012.12.013</t>
-  </si>
-  <si>
     <t>200µm x 50µm</t>
   </si>
   <si>
@@ -247,9 +250,6 @@
     <t>3% (60)</t>
   </si>
   <si>
-    <t>microcircuitry of the cat retina</t>
-  </si>
-  <si>
     <t>ribbons</t>
   </si>
   <si>
@@ -326,13 +326,34 @@
   </si>
   <si>
     <t>the structure of the nervous system of the nematode; White, J. G., Southgate, E., Thomson, J. N. &amp; Brenner S.</t>
+  </si>
+  <si>
+    <t>Reference number</t>
+  </si>
+  <si>
+    <t>Bumbarger, D. J., Riebesell, M., Rodelsperger, and C. Sommer, R. J., System-wide Rewiring Underlies Behavioral Differences in Predatory and Bacterial-Feeding Nematodes. 109–119 (2013). doi:10.1016/j.cell.2012.12.013</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Ryan et al. sea squirt larva Ciona intestinalis (anterior portion)</t>
+  </si>
+  <si>
+    <t>microcircuitry of the cat retina - ?</t>
+  </si>
+  <si>
+    <t>Kasthuri S1 dense</t>
+  </si>
+  <si>
+    <t>40 x 40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -372,6 +393,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -382,8 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -396,7 +423,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -478,8 +505,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -487,25 +515,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="81" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="82">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -546,6 +587,7 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="81" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -590,6 +632,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -914,35 +964,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="167" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="96.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -954,47 +1006,53 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>4150</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>28</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
         <v>2011</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="5">
-        <v>28</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>306</v>
       </c>
-      <c r="B4" s="2">
-        <v>2007</v>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1006,97 +1064,112 @@
       <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="12">
+        <v>8</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1">
-      <c r="A5" s="5">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3700</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>51</v>
+      </c>
+      <c r="H5" s="12">
+        <v>11</v>
+      </c>
+      <c r="I5" s="10">
         <v>2016</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="J5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1073</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5">
-        <v>51</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1">
-      <c r="A6" s="5">
-        <v>1073</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="I6" s="8">
         <v>1985</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="J6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="5" customFormat="1">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2</v>
+      </c>
+      <c r="I7" s="8">
         <v>2013</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1">
+      <c r="J7" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1107,48 +1180,50 @@
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="5" customFormat="1">
-      <c r="A9" s="5">
-        <v>2000</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="8">
         <v>1991</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="J9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1974</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1159,51 +1234,57 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="12">
+        <v>14</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1974</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2600</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="5" customFormat="1">
-      <c r="A11" s="5">
-        <v>2600</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>559</v>
+      </c>
+      <c r="H11" s="8">
+        <v>4</v>
+      </c>
+      <c r="I11" s="8">
         <v>1972</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="5">
-        <v>559</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1">
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>189</v>
       </c>
-      <c r="B12" s="2">
-        <v>1983</v>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
@@ -1211,100 +1292,110 @@
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8">
+        <v>1983</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1200</v>
       </c>
-      <c r="B13" s="2">
-        <v>1987</v>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="12">
+        <v>6</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1987</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1998</v>
+      <c r="H14" s="12">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2013</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" s="12">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1998</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>672</v>
       </c>
-      <c r="B16" s="1">
-        <v>2008</v>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>21</v>
@@ -1315,22 +1406,25 @@
       <c r="G16" s="1">
         <v>3</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" s="12">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2008</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1769</v>
       </c>
-      <c r="B17" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="1">
         <v>42</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>60</v>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>21</v>
@@ -1341,22 +1435,25 @@
       <c r="G17" s="1">
         <v>21</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H17" s="12">
+        <v>17</v>
+      </c>
+      <c r="I17" s="11">
+        <v>2013</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3375</v>
       </c>
       <c r="B19" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C19" s="1">
         <v>60</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>63</v>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>21</v>
@@ -1367,13 +1464,25 @@
       <c r="G19" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" s="12">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7060</v>
+        <v>7062</v>
       </c>
       <c r="B20" s="1">
-        <v>2017</v>
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>6</v>
@@ -1381,22 +1490,25 @@
       <c r="G20" s="1">
         <v>10</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" s="7">
+        <v>20</v>
+      </c>
+      <c r="I20" s="6">
+        <v>2018</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>8000</v>
       </c>
       <c r="B21" s="1">
-        <v>1986</v>
-      </c>
-      <c r="C21" s="1">
         <v>50</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>64</v>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>11</v>
@@ -1407,13 +1519,33 @@
       <c r="G21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>65</v>
+      <c r="H21" s="7">
+        <v>19</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1986</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="7">
+        <v>21</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2015</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H9" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
